--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_92.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_92.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32253-d78662-Reviews-BLVD_Hotel-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>249</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-BLVD-Hotel.h13306.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_92.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_92.xlsx
@@ -4330,7 +4330,7 @@
         <v>3923</v>
       </c>
       <c r="B5" t="n">
-        <v>129822</v>
+        <v>160528</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -4395,7 +4395,7 @@
         <v>3923</v>
       </c>
       <c r="B6" t="n">
-        <v>129823</v>
+        <v>160529</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
@@ -4456,7 +4456,7 @@
         <v>3923</v>
       </c>
       <c r="B7" t="n">
-        <v>129824</v>
+        <v>160530</v>
       </c>
       <c r="C7" t="s">
         <v>85</v>
@@ -4521,7 +4521,7 @@
         <v>3923</v>
       </c>
       <c r="B8" t="n">
-        <v>129825</v>
+        <v>160531</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
@@ -4588,7 +4588,7 @@
         <v>3923</v>
       </c>
       <c r="B9" t="n">
-        <v>129826</v>
+        <v>160532</v>
       </c>
       <c r="C9" t="s">
         <v>100</v>
@@ -4710,7 +4710,7 @@
         <v>3923</v>
       </c>
       <c r="B11" t="n">
-        <v>129827</v>
+        <v>160533</v>
       </c>
       <c r="C11" t="s">
         <v>112</v>
@@ -4779,7 +4779,7 @@
         <v>3923</v>
       </c>
       <c r="B12" t="n">
-        <v>129828</v>
+        <v>160534</v>
       </c>
       <c r="C12" t="s">
         <v>122</v>
@@ -4915,7 +4915,7 @@
         <v>3923</v>
       </c>
       <c r="B14" t="n">
-        <v>129829</v>
+        <v>160535</v>
       </c>
       <c r="C14" t="s">
         <v>138</v>
@@ -4982,7 +4982,7 @@
         <v>3923</v>
       </c>
       <c r="B15" t="n">
-        <v>129830</v>
+        <v>160536</v>
       </c>
       <c r="C15" t="s">
         <v>148</v>
@@ -5051,7 +5051,7 @@
         <v>3923</v>
       </c>
       <c r="B16" t="n">
-        <v>129831</v>
+        <v>160537</v>
       </c>
       <c r="C16" t="s">
         <v>159</v>
@@ -5262,7 +5262,7 @@
         <v>3923</v>
       </c>
       <c r="B19" t="n">
-        <v>129832</v>
+        <v>160538</v>
       </c>
       <c r="C19" t="s">
         <v>186</v>
@@ -5323,7 +5323,7 @@
         <v>3923</v>
       </c>
       <c r="B20" t="n">
-        <v>129833</v>
+        <v>160539</v>
       </c>
       <c r="C20" t="s">
         <v>195</v>
@@ -5465,7 +5465,7 @@
         <v>3923</v>
       </c>
       <c r="B22" t="n">
-        <v>129834</v>
+        <v>160540</v>
       </c>
       <c r="C22" t="s">
         <v>215</v>
@@ -5530,7 +5530,7 @@
         <v>3923</v>
       </c>
       <c r="B23" t="n">
-        <v>129835</v>
+        <v>160541</v>
       </c>
       <c r="C23" t="s">
         <v>224</v>
@@ -5656,7 +5656,7 @@
         <v>3923</v>
       </c>
       <c r="B25" t="n">
-        <v>129836</v>
+        <v>160542</v>
       </c>
       <c r="C25" t="s">
         <v>242</v>
@@ -5721,7 +5721,7 @@
         <v>3923</v>
       </c>
       <c r="B26" t="n">
-        <v>129837</v>
+        <v>160543</v>
       </c>
       <c r="C26" t="s">
         <v>251</v>
@@ -5859,7 +5859,7 @@
         <v>3923</v>
       </c>
       <c r="B28" t="n">
-        <v>129838</v>
+        <v>160544</v>
       </c>
       <c r="C28" t="s">
         <v>267</v>
@@ -5930,7 +5930,7 @@
         <v>3923</v>
       </c>
       <c r="B29" t="n">
-        <v>129839</v>
+        <v>160545</v>
       </c>
       <c r="C29" t="s">
         <v>274</v>
@@ -5997,7 +5997,7 @@
         <v>3923</v>
       </c>
       <c r="B30" t="n">
-        <v>129840</v>
+        <v>160546</v>
       </c>
       <c r="C30" t="s">
         <v>282</v>
@@ -6066,7 +6066,7 @@
         <v>3923</v>
       </c>
       <c r="B31" t="n">
-        <v>129841</v>
+        <v>160547</v>
       </c>
       <c r="C31" t="s">
         <v>292</v>
@@ -6206,7 +6206,7 @@
         <v>3923</v>
       </c>
       <c r="B33" t="n">
-        <v>129842</v>
+        <v>160548</v>
       </c>
       <c r="C33" t="s">
         <v>312</v>
@@ -6271,7 +6271,7 @@
         <v>3923</v>
       </c>
       <c r="B34" t="n">
-        <v>129843</v>
+        <v>160549</v>
       </c>
       <c r="C34" t="s">
         <v>318</v>
@@ -6342,7 +6342,7 @@
         <v>3923</v>
       </c>
       <c r="B35" t="n">
-        <v>129844</v>
+        <v>160550</v>
       </c>
       <c r="C35" t="s">
         <v>327</v>
@@ -6409,7 +6409,7 @@
         <v>3923</v>
       </c>
       <c r="B36" t="n">
-        <v>129845</v>
+        <v>160551</v>
       </c>
       <c r="C36" t="s">
         <v>334</v>
@@ -6470,7 +6470,7 @@
         <v>3923</v>
       </c>
       <c r="B37" t="n">
-        <v>129846</v>
+        <v>160552</v>
       </c>
       <c r="C37" t="s">
         <v>341</v>
@@ -6537,7 +6537,7 @@
         <v>3923</v>
       </c>
       <c r="B38" t="n">
-        <v>129847</v>
+        <v>160553</v>
       </c>
       <c r="C38" t="s">
         <v>349</v>
@@ -6817,7 +6817,7 @@
         <v>3923</v>
       </c>
       <c r="B42" t="n">
-        <v>129848</v>
+        <v>160554</v>
       </c>
       <c r="C42" t="s">
         <v>383</v>
@@ -6957,7 +6957,7 @@
         <v>3923</v>
       </c>
       <c r="B44" t="n">
-        <v>129849</v>
+        <v>160555</v>
       </c>
       <c r="C44" t="s">
         <v>400</v>
@@ -7225,7 +7225,7 @@
         <v>3923</v>
       </c>
       <c r="B48" t="n">
-        <v>129850</v>
+        <v>160556</v>
       </c>
       <c r="C48" t="s">
         <v>433</v>
@@ -7296,7 +7296,7 @@
         <v>3923</v>
       </c>
       <c r="B49" t="n">
-        <v>129851</v>
+        <v>160557</v>
       </c>
       <c r="C49" t="s">
         <v>440</v>
@@ -7367,7 +7367,7 @@
         <v>3923</v>
       </c>
       <c r="B50" t="n">
-        <v>129852</v>
+        <v>160558</v>
       </c>
       <c r="C50" t="s">
         <v>449</v>
@@ -7438,7 +7438,7 @@
         <v>3923</v>
       </c>
       <c r="B51" t="n">
-        <v>129853</v>
+        <v>160559</v>
       </c>
       <c r="C51" t="s">
         <v>458</v>
@@ -7503,7 +7503,7 @@
         <v>3923</v>
       </c>
       <c r="B52" t="n">
-        <v>129854</v>
+        <v>160560</v>
       </c>
       <c r="C52" t="s">
         <v>467</v>
@@ -7568,7 +7568,7 @@
         <v>3923</v>
       </c>
       <c r="B53" t="n">
-        <v>129855</v>
+        <v>160561</v>
       </c>
       <c r="C53" t="s">
         <v>477</v>
@@ -7779,7 +7779,7 @@
         <v>3923</v>
       </c>
       <c r="B56" t="n">
-        <v>129856</v>
+        <v>160562</v>
       </c>
       <c r="C56" t="s">
         <v>502</v>
@@ -7913,7 +7913,7 @@
         <v>3923</v>
       </c>
       <c r="B58" t="n">
-        <v>129857</v>
+        <v>160563</v>
       </c>
       <c r="C58" t="s">
         <v>516</v>
@@ -7982,7 +7982,7 @@
         <v>3923</v>
       </c>
       <c r="B59" t="n">
-        <v>129858</v>
+        <v>160564</v>
       </c>
       <c r="C59" t="s">
         <v>523</v>
@@ -8051,7 +8051,7 @@
         <v>3923</v>
       </c>
       <c r="B60" t="n">
-        <v>129859</v>
+        <v>160565</v>
       </c>
       <c r="C60" t="s">
         <v>532</v>
@@ -8126,7 +8126,7 @@
         <v>3923</v>
       </c>
       <c r="B61" t="n">
-        <v>129860</v>
+        <v>160566</v>
       </c>
       <c r="C61" t="s">
         <v>542</v>
@@ -8266,7 +8266,7 @@
         <v>3923</v>
       </c>
       <c r="B63" t="n">
-        <v>129861</v>
+        <v>160567</v>
       </c>
       <c r="C63" t="s">
         <v>558</v>
@@ -8337,7 +8337,7 @@
         <v>3923</v>
       </c>
       <c r="B64" t="n">
-        <v>129862</v>
+        <v>160568</v>
       </c>
       <c r="C64" t="s">
         <v>568</v>
@@ -8408,7 +8408,7 @@
         <v>3923</v>
       </c>
       <c r="B65" t="n">
-        <v>129863</v>
+        <v>160569</v>
       </c>
       <c r="C65" t="s">
         <v>576</v>
@@ -8479,7 +8479,7 @@
         <v>3923</v>
       </c>
       <c r="B66" t="n">
-        <v>129864</v>
+        <v>160570</v>
       </c>
       <c r="C66" t="s">
         <v>586</v>
@@ -8550,7 +8550,7 @@
         <v>3923</v>
       </c>
       <c r="B67" t="n">
-        <v>129865</v>
+        <v>160571</v>
       </c>
       <c r="C67" t="s">
         <v>593</v>
@@ -8621,7 +8621,7 @@
         <v>3923</v>
       </c>
       <c r="B68" t="n">
-        <v>129866</v>
+        <v>129858</v>
       </c>
       <c r="C68" t="s">
         <v>601</v>
@@ -9045,7 +9045,7 @@
         <v>3923</v>
       </c>
       <c r="B74" t="n">
-        <v>129867</v>
+        <v>160572</v>
       </c>
       <c r="C74" t="s">
         <v>649</v>
@@ -9114,7 +9114,7 @@
         <v>3923</v>
       </c>
       <c r="B75" t="n">
-        <v>129868</v>
+        <v>160573</v>
       </c>
       <c r="C75" t="s">
         <v>659</v>
@@ -9325,7 +9325,7 @@
         <v>3923</v>
       </c>
       <c r="B78" t="n">
-        <v>129869</v>
+        <v>160574</v>
       </c>
       <c r="C78" t="s">
         <v>682</v>
@@ -9396,7 +9396,7 @@
         <v>3923</v>
       </c>
       <c r="B79" t="n">
-        <v>129870</v>
+        <v>160575</v>
       </c>
       <c r="C79" t="s">
         <v>690</v>
@@ -9461,7 +9461,7 @@
         <v>3923</v>
       </c>
       <c r="B80" t="n">
-        <v>129871</v>
+        <v>160576</v>
       </c>
       <c r="C80" t="s">
         <v>697</v>
@@ -9530,7 +9530,7 @@
         <v>3923</v>
       </c>
       <c r="B81" t="n">
-        <v>129872</v>
+        <v>160577</v>
       </c>
       <c r="C81" t="s">
         <v>706</v>
@@ -9672,7 +9672,7 @@
         <v>3923</v>
       </c>
       <c r="B83" t="n">
-        <v>129873</v>
+        <v>160578</v>
       </c>
       <c r="C83" t="s">
         <v>722</v>
@@ -9883,7 +9883,7 @@
         <v>3923</v>
       </c>
       <c r="B86" t="n">
-        <v>129874</v>
+        <v>160579</v>
       </c>
       <c r="C86" t="s">
         <v>747</v>
@@ -9952,7 +9952,7 @@
         <v>3923</v>
       </c>
       <c r="B87" t="n">
-        <v>129875</v>
+        <v>160580</v>
       </c>
       <c r="C87" t="s">
         <v>757</v>
@@ -10090,7 +10090,7 @@
         <v>3923</v>
       </c>
       <c r="B89" t="n">
-        <v>129876</v>
+        <v>160581</v>
       </c>
       <c r="C89" t="s">
         <v>770</v>
@@ -10165,7 +10165,7 @@
         <v>3923</v>
       </c>
       <c r="B90" t="n">
-        <v>129877</v>
+        <v>160582</v>
       </c>
       <c r="C90" t="s">
         <v>777</v>
@@ -10240,7 +10240,7 @@
         <v>3923</v>
       </c>
       <c r="B91" t="n">
-        <v>129878</v>
+        <v>160583</v>
       </c>
       <c r="C91" t="s">
         <v>785</v>
@@ -10315,7 +10315,7 @@
         <v>3923</v>
       </c>
       <c r="B92" t="n">
-        <v>129879</v>
+        <v>160584</v>
       </c>
       <c r="C92" t="s">
         <v>794</v>
@@ -10461,7 +10461,7 @@
         <v>3923</v>
       </c>
       <c r="B94" t="n">
-        <v>129880</v>
+        <v>160585</v>
       </c>
       <c r="C94" t="s">
         <v>809</v>
@@ -10686,7 +10686,7 @@
         <v>3923</v>
       </c>
       <c r="B97" t="n">
-        <v>129881</v>
+        <v>160586</v>
       </c>
       <c r="C97" t="s">
         <v>836</v>
@@ -10826,7 +10826,7 @@
         <v>3923</v>
       </c>
       <c r="B99" t="n">
-        <v>129882</v>
+        <v>160587</v>
       </c>
       <c r="C99" t="s">
         <v>851</v>
@@ -10901,7 +10901,7 @@
         <v>3923</v>
       </c>
       <c r="B100" t="n">
-        <v>129865</v>
+        <v>129858</v>
       </c>
       <c r="C100" t="s">
         <v>601</v>
@@ -10976,7 +10976,7 @@
         <v>3923</v>
       </c>
       <c r="B101" t="n">
-        <v>129883</v>
+        <v>160588</v>
       </c>
       <c r="C101" t="s">
         <v>866</v>
@@ -11272,7 +11272,7 @@
         <v>3923</v>
       </c>
       <c r="B105" t="n">
-        <v>129884</v>
+        <v>160589</v>
       </c>
       <c r="C105" t="s">
         <v>903</v>
@@ -11422,7 +11422,7 @@
         <v>3923</v>
       </c>
       <c r="B107" t="n">
-        <v>129885</v>
+        <v>160590</v>
       </c>
       <c r="C107" t="s">
         <v>919</v>
@@ -11572,7 +11572,7 @@
         <v>3923</v>
       </c>
       <c r="B109" t="n">
-        <v>129886</v>
+        <v>160591</v>
       </c>
       <c r="C109" t="s">
         <v>938</v>
@@ -11722,7 +11722,7 @@
         <v>3923</v>
       </c>
       <c r="B111" t="n">
-        <v>129887</v>
+        <v>160592</v>
       </c>
       <c r="C111" t="s">
         <v>955</v>
@@ -11793,7 +11793,7 @@
         <v>3923</v>
       </c>
       <c r="B112" t="n">
-        <v>129888</v>
+        <v>160593</v>
       </c>
       <c r="C112" t="s">
         <v>962</v>
@@ -12010,7 +12010,7 @@
         <v>3923</v>
       </c>
       <c r="B115" t="n">
-        <v>129889</v>
+        <v>160594</v>
       </c>
       <c r="C115" t="s">
         <v>984</v>
@@ -12085,7 +12085,7 @@
         <v>3923</v>
       </c>
       <c r="B116" t="n">
-        <v>129890</v>
+        <v>160595</v>
       </c>
       <c r="C116" t="s">
         <v>994</v>
@@ -12160,7 +12160,7 @@
         <v>3923</v>
       </c>
       <c r="B117" t="n">
-        <v>129891</v>
+        <v>160596</v>
       </c>
       <c r="C117" t="s">
         <v>1002</v>
@@ -12310,7 +12310,7 @@
         <v>3923</v>
       </c>
       <c r="B119" t="n">
-        <v>129892</v>
+        <v>160597</v>
       </c>
       <c r="C119" t="s">
         <v>1018</v>
@@ -12385,7 +12385,7 @@
         <v>3923</v>
       </c>
       <c r="B120" t="n">
-        <v>129893</v>
+        <v>160598</v>
       </c>
       <c r="C120" t="s">
         <v>1028</v>
@@ -12456,7 +12456,7 @@
         <v>3923</v>
       </c>
       <c r="B121" t="n">
-        <v>129894</v>
+        <v>160599</v>
       </c>
       <c r="C121" t="s">
         <v>1034</v>
@@ -12598,7 +12598,7 @@
         <v>3923</v>
       </c>
       <c r="B123" t="n">
-        <v>129895</v>
+        <v>160600</v>
       </c>
       <c r="C123" t="s">
         <v>1047</v>
@@ -12669,7 +12669,7 @@
         <v>3923</v>
       </c>
       <c r="B124" t="n">
-        <v>129896</v>
+        <v>160601</v>
       </c>
       <c r="C124" t="s">
         <v>1053</v>
@@ -12740,7 +12740,7 @@
         <v>3923</v>
       </c>
       <c r="B125" t="n">
-        <v>129897</v>
+        <v>160602</v>
       </c>
       <c r="C125" t="s">
         <v>1062</v>
@@ -12961,7 +12961,7 @@
         <v>3923</v>
       </c>
       <c r="B128" t="n">
-        <v>129898</v>
+        <v>160603</v>
       </c>
       <c r="C128" t="s">
         <v>1087</v>
@@ -13103,7 +13103,7 @@
         <v>3923</v>
       </c>
       <c r="B130" t="n">
-        <v>129899</v>
+        <v>160604</v>
       </c>
       <c r="C130" t="s">
         <v>1101</v>
@@ -13249,7 +13249,7 @@
         <v>3923</v>
       </c>
       <c r="B132" t="n">
-        <v>129900</v>
+        <v>160605</v>
       </c>
       <c r="C132" t="s">
         <v>1117</v>
@@ -13316,7 +13316,7 @@
         <v>3923</v>
       </c>
       <c r="B133" t="n">
-        <v>129901</v>
+        <v>160606</v>
       </c>
       <c r="C133" t="s">
         <v>1125</v>
@@ -13383,7 +13383,7 @@
         <v>3923</v>
       </c>
       <c r="B134" t="n">
-        <v>129902</v>
+        <v>160607</v>
       </c>
       <c r="C134" t="s">
         <v>1131</v>
@@ -13454,7 +13454,7 @@
         <v>3923</v>
       </c>
       <c r="B135" t="n">
-        <v>129903</v>
+        <v>160608</v>
       </c>
       <c r="C135" t="s">
         <v>1138</v>
@@ -13515,7 +13515,7 @@
         <v>3923</v>
       </c>
       <c r="B136" t="n">
-        <v>129904</v>
+        <v>160609</v>
       </c>
       <c r="C136" t="s">
         <v>1146</v>
@@ -13586,7 +13586,7 @@
         <v>3923</v>
       </c>
       <c r="B137" t="n">
-        <v>129905</v>
+        <v>160610</v>
       </c>
       <c r="C137" t="s">
         <v>1153</v>
@@ -13657,7 +13657,7 @@
         <v>3923</v>
       </c>
       <c r="B138" t="n">
-        <v>129906</v>
+        <v>160611</v>
       </c>
       <c r="C138" t="s">
         <v>1160</v>
@@ -13728,7 +13728,7 @@
         <v>3923</v>
       </c>
       <c r="B139" t="n">
-        <v>129907</v>
+        <v>160612</v>
       </c>
       <c r="C139" t="s">
         <v>1168</v>
@@ -13797,7 +13797,7 @@
         <v>3923</v>
       </c>
       <c r="B140" t="n">
-        <v>129908</v>
+        <v>160613</v>
       </c>
       <c r="C140" t="s">
         <v>1176</v>
@@ -13866,7 +13866,7 @@
         <v>3923</v>
       </c>
       <c r="B141" t="n">
-        <v>129909</v>
+        <v>160614</v>
       </c>
       <c r="C141" t="s">
         <v>1183</v>
